--- a/Documentation/psu/PSU_BOM.xlsx
+++ b/Documentation/psu/PSU_BOM.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Column10</t>
   </si>
@@ -266,6 +265,18 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/ECO-S1EP473EA/P6901-ND/132015</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PRT-08619</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8619?</t>
   </si>
 </sst>
 </file>
@@ -276,7 +287,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +318,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +336,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -345,13 +368,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -364,8 +388,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -698,7 +725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +737,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="101" customWidth="1"/>
+    <col min="8" max="8" width="103.5703125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
@@ -1240,16 +1267,33 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="I16" s="6">
-        <v>0</v>
+      <c r="A16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="11">
+        <v>9.9499999999999993</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,11 +1324,11 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7">
         <f>SUM(Table3[Quantity])</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>32.199999999999996</v>
+        <v>42.149999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1492,11 +1536,15 @@
     <hyperlink ref="E15" r:id="rId40" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
     <hyperlink ref="G15" r:id="rId41" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
     <hyperlink ref="H15" r:id="rId42"/>
+    <hyperlink ref="H9" r:id="rId43"/>
+    <hyperlink ref="H10" r:id="rId44"/>
+    <hyperlink ref="H11" r:id="rId45"/>
+    <hyperlink ref="G16" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
